--- a/chain_data/工程机械/node_gcjx_code.xlsx
+++ b/chain_data/工程机械/node_gcjx_code.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="18280" windowHeight="8200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="516">
   <si>
     <t>node_col_rank</t>
   </si>
@@ -31,861 +31,1912 @@
     <t>0</t>
   </si>
   <si>
+    <t>工程机械</t>
+  </si>
+  <si>
+    <t>上游</t>
+  </si>
+  <si>
+    <t>02901</t>
+  </si>
+  <si>
+    <t>中游</t>
+  </si>
+  <si>
+    <t>02902</t>
+  </si>
+  <si>
+    <t>下游</t>
+  </si>
+  <si>
+    <t>02903</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>原材料</t>
+  </si>
+  <si>
+    <t>0290101</t>
+  </si>
+  <si>
+    <t>零部件</t>
+  </si>
+  <si>
+    <t>0290102</t>
+  </si>
+  <si>
+    <t>生产设备</t>
+  </si>
+  <si>
+    <t>0290103</t>
+  </si>
+  <si>
+    <t>工程机械制造</t>
+  </si>
+  <si>
+    <t>0290201</t>
+  </si>
+  <si>
+    <t>配套服务</t>
+  </si>
+  <si>
+    <t>0290301</t>
+  </si>
+  <si>
+    <t>销售渠道</t>
+  </si>
+  <si>
+    <t>0290302</t>
+  </si>
+  <si>
+    <t>产品应用</t>
+  </si>
+  <si>
+    <t>0290303</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>工程机械用钢</t>
+  </si>
+  <si>
+    <t>029010101</t>
+  </si>
+  <si>
+    <t>内燃机</t>
+  </si>
+  <si>
+    <t>029010201</t>
+  </si>
+  <si>
+    <t>工程机械动力电池</t>
+  </si>
+  <si>
+    <t>029010202</t>
+  </si>
+  <si>
+    <t>工程机械涂料</t>
+  </si>
+  <si>
+    <t>029010203</t>
+  </si>
+  <si>
+    <t>工程机械配件</t>
+  </si>
+  <si>
+    <t>029010204</t>
+  </si>
+  <si>
+    <t>工程机械橡胶部件</t>
+  </si>
+  <si>
+    <t>029010205</t>
+  </si>
+  <si>
+    <t>工程机械齿轮</t>
+  </si>
+  <si>
+    <t>029010206</t>
+  </si>
+  <si>
+    <t>工程机械座椅</t>
+  </si>
+  <si>
+    <t>029010207</t>
+  </si>
+  <si>
+    <t>轴承</t>
+  </si>
+  <si>
+    <t>029010208</t>
+  </si>
+  <si>
+    <t>液压系统</t>
+  </si>
+  <si>
+    <t>029010209</t>
+  </si>
+  <si>
+    <t>机床</t>
+  </si>
+  <si>
+    <t>029010301</t>
+  </si>
+  <si>
+    <t>工业机器人系统集成</t>
+  </si>
+  <si>
+    <t>029010302</t>
+  </si>
+  <si>
+    <t>自动化装备设备</t>
+  </si>
+  <si>
+    <t>029010303</t>
+  </si>
+  <si>
+    <t>机床刀具</t>
+  </si>
+  <si>
+    <t>029010304</t>
+  </si>
+  <si>
+    <t>焊接设备</t>
+  </si>
+  <si>
+    <t>029010305</t>
+  </si>
+  <si>
+    <t>锻造模具</t>
+  </si>
+  <si>
+    <t>029010306</t>
+  </si>
+  <si>
+    <t>土方机械</t>
+  </si>
+  <si>
+    <t>029020101</t>
+  </si>
+  <si>
+    <t>桩工机械</t>
+  </si>
+  <si>
+    <t>029020102</t>
+  </si>
+  <si>
+    <t>路面机械</t>
+  </si>
+  <si>
+    <t>029020103</t>
+  </si>
+  <si>
+    <t>混凝土机械</t>
+  </si>
+  <si>
+    <t>029020104</t>
+  </si>
+  <si>
+    <t>起重机械</t>
+  </si>
+  <si>
+    <t>029020105</t>
+  </si>
+  <si>
+    <t>工业车辆</t>
+  </si>
+  <si>
+    <t>029020106</t>
+  </si>
+  <si>
+    <t>隧道专用机械</t>
+  </si>
+  <si>
+    <t>029020107</t>
+  </si>
+  <si>
+    <t>高空作业设备</t>
+  </si>
+  <si>
+    <t>029020108</t>
+  </si>
+  <si>
+    <t>非道路货运自卸车</t>
+  </si>
+  <si>
+    <t>029020109</t>
+  </si>
+  <si>
+    <t>融租服务</t>
+  </si>
+  <si>
+    <t>029030101</t>
+  </si>
+  <si>
+    <t>工程机械贸易</t>
+  </si>
+  <si>
+    <t>029030201</t>
+  </si>
+  <si>
+    <t>工程机械零售</t>
+  </si>
+  <si>
+    <t>029030202</t>
+  </si>
+  <si>
+    <t>房屋建设工程</t>
+  </si>
+  <si>
+    <t>029030301</t>
+  </si>
+  <si>
+    <t>基础建设工程</t>
+  </si>
+  <si>
+    <t>029030302</t>
+  </si>
+  <si>
+    <t>能源采矿工程</t>
+  </si>
+  <si>
+    <t>029030303</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>工程车罩体</t>
+  </si>
+  <si>
+    <t>02901020401</t>
+  </si>
+  <si>
+    <t>推土机机铲</t>
+  </si>
+  <si>
+    <t>02901020402</t>
+  </si>
+  <si>
+    <t>挖掘机用铲</t>
+  </si>
+  <si>
+    <t>02901020403</t>
+  </si>
+  <si>
+    <t>滑动轴承</t>
+  </si>
+  <si>
+    <t>02901020801</t>
+  </si>
+  <si>
+    <t>关节轴承</t>
+  </si>
+  <si>
+    <t>02901020802</t>
+  </si>
+  <si>
+    <t>滚动轴承</t>
+  </si>
+  <si>
+    <t>02901020803</t>
+  </si>
+  <si>
+    <t>深沟球轴承</t>
+  </si>
+  <si>
+    <t>02901020804</t>
+  </si>
+  <si>
+    <t>角接触球轴承</t>
+  </si>
+  <si>
+    <t>02901020805</t>
+  </si>
+  <si>
+    <t>调心球轴承</t>
+  </si>
+  <si>
+    <t>02901020806</t>
+  </si>
+  <si>
+    <t>推力球轴承</t>
+  </si>
+  <si>
+    <t>02901020807</t>
+  </si>
+  <si>
+    <t>双向推力角接触轴承</t>
+  </si>
+  <si>
+    <t>02901020808</t>
+  </si>
+  <si>
+    <t>液压泵</t>
+  </si>
+  <si>
+    <t>02901020901</t>
+  </si>
+  <si>
+    <t>液压马达</t>
+  </si>
+  <si>
+    <t>02901020902</t>
+  </si>
+  <si>
+    <t>液压缸</t>
+  </si>
+  <si>
+    <t>02901020903</t>
+  </si>
+  <si>
+    <t>挖掘机械</t>
+  </si>
+  <si>
+    <t>02902010101</t>
+  </si>
+  <si>
+    <t>推土机械</t>
+  </si>
+  <si>
+    <t>02902010102</t>
+  </si>
+  <si>
+    <t>铲土机械</t>
+  </si>
+  <si>
+    <t>02902010103</t>
+  </si>
+  <si>
+    <t>运输机械</t>
+  </si>
+  <si>
+    <t>02902010104</t>
+  </si>
+  <si>
+    <t>压实机械</t>
+  </si>
+  <si>
+    <t>02902010105</t>
+  </si>
+  <si>
+    <t>打桩机</t>
+  </si>
+  <si>
+    <t>02902010201</t>
+  </si>
+  <si>
+    <t>压装机</t>
+  </si>
+  <si>
+    <t>02902010202</t>
+  </si>
+  <si>
+    <t>打桩锤</t>
+  </si>
+  <si>
+    <t>02902010203</t>
+  </si>
+  <si>
+    <t>柴油锤打桩架</t>
+  </si>
+  <si>
+    <t>02902010204</t>
+  </si>
+  <si>
+    <t>拨桩机</t>
+  </si>
+  <si>
+    <t>02902010205</t>
+  </si>
+  <si>
+    <t>摊铺机械</t>
+  </si>
+  <si>
+    <t>02902010301</t>
+  </si>
+  <si>
+    <t>筑养路机械</t>
+  </si>
+  <si>
+    <t>02902010302</t>
+  </si>
+  <si>
+    <t>线路铺装机械</t>
+  </si>
+  <si>
+    <t>02902010303</t>
+  </si>
+  <si>
+    <t>扫雪设备</t>
+  </si>
+  <si>
+    <t>02902010304</t>
+  </si>
+  <si>
+    <t>混凝土泵车</t>
+  </si>
+  <si>
+    <t>02902010401</t>
+  </si>
+  <si>
+    <t>混凝土搅拌站</t>
+  </si>
+  <si>
+    <t>02902010402</t>
+  </si>
+  <si>
+    <t>混凝土泵</t>
+  </si>
+  <si>
+    <t>02902010403</t>
+  </si>
+  <si>
+    <t>混凝土搅拌车</t>
+  </si>
+  <si>
+    <t>02902010404</t>
+  </si>
+  <si>
+    <t>散装水泥车</t>
+  </si>
+  <si>
+    <t>02902010405</t>
+  </si>
+  <si>
+    <t>布料杆</t>
+  </si>
+  <si>
+    <t>02902010406</t>
+  </si>
+  <si>
+    <t>轻小型起重设备</t>
+  </si>
+  <si>
+    <t>02902010501</t>
+  </si>
+  <si>
+    <t>桥式起重机</t>
+  </si>
+  <si>
+    <t>02902010502</t>
+  </si>
+  <si>
+    <t>门式起重机(龙门起重机)</t>
+  </si>
+  <si>
+    <t>02902010503</t>
+  </si>
+  <si>
+    <t>门座起重机</t>
+  </si>
+  <si>
+    <t>02902010504</t>
+  </si>
+  <si>
+    <t>塔式起重机</t>
+  </si>
+  <si>
+    <t>02902010505</t>
+  </si>
+  <si>
+    <t>轮式起重机</t>
+  </si>
+  <si>
+    <t>02902010506</t>
+  </si>
+  <si>
+    <t>悬臂起重机</t>
+  </si>
+  <si>
+    <t>02902010507</t>
+  </si>
+  <si>
+    <t>移动式吊运架</t>
+  </si>
+  <si>
+    <t>02902010508</t>
+  </si>
+  <si>
+    <t>装卸桥</t>
+  </si>
+  <si>
+    <t>02902010509</t>
+  </si>
+  <si>
+    <t>叉车</t>
+  </si>
+  <si>
+    <t>02902010601</t>
+  </si>
+  <si>
+    <t>跨运车</t>
+  </si>
+  <si>
+    <t>02902010602</t>
+  </si>
+  <si>
+    <t>手动搬运车</t>
+  </si>
+  <si>
+    <t>02902010603</t>
+  </si>
+  <si>
+    <t>堆垛车</t>
+  </si>
+  <si>
+    <t>02902010604</t>
+  </si>
+  <si>
+    <t>拣选车</t>
+  </si>
+  <si>
+    <t>02902010605</t>
+  </si>
+  <si>
+    <t>掘进机</t>
+  </si>
+  <si>
+    <t>02902010701</t>
+  </si>
+  <si>
+    <t>盾构机</t>
+  </si>
+  <si>
+    <t>02902010702</t>
+  </si>
+  <si>
+    <t>交叉式高空作业平台</t>
+  </si>
+  <si>
+    <t>02902010801</t>
+  </si>
+  <si>
+    <t>曲臂式高空作业平台</t>
+  </si>
+  <si>
+    <t>02902010802</t>
+  </si>
+  <si>
+    <t>直臂式高空作业平台</t>
+  </si>
+  <si>
+    <t>02902010803</t>
+  </si>
+  <si>
+    <t>电动轮非公路用货运自卸车</t>
+  </si>
+  <si>
+    <t>02902010901</t>
+  </si>
+  <si>
+    <t>自卸车(翻斗车)</t>
+  </si>
+  <si>
+    <t>02902010902</t>
+  </si>
+  <si>
+    <t>工业用房屋建设工程</t>
+  </si>
+  <si>
+    <t>02903030101</t>
+  </si>
+  <si>
+    <t>住宅及商业房屋建设工程</t>
+  </si>
+  <si>
+    <t>02903030102</t>
+  </si>
+  <si>
+    <t>公用地产房屋建设工程</t>
+  </si>
+  <si>
+    <t>02903030103</t>
+  </si>
+  <si>
+    <t>水利工程</t>
+  </si>
+  <si>
+    <t>02903030201</t>
+  </si>
+  <si>
+    <t>机场工程</t>
+  </si>
+  <si>
+    <t>02903030202</t>
+  </si>
+  <si>
+    <t>水运工程</t>
+  </si>
+  <si>
+    <t>02903030203</t>
+  </si>
+  <si>
+    <t>管道工程</t>
+  </si>
+  <si>
+    <t>02903030204</t>
+  </si>
+  <si>
+    <t>海洋工程</t>
+  </si>
+  <si>
+    <t>02903030205</t>
+  </si>
+  <si>
+    <t>市政工程</t>
+  </si>
+  <si>
+    <t>02903030206</t>
+  </si>
+  <si>
+    <t>路桥工程</t>
+  </si>
+  <si>
+    <t>02903030207</t>
+  </si>
+  <si>
+    <t>铁路工程</t>
+  </si>
+  <si>
+    <t>02903030208</t>
+  </si>
+  <si>
+    <t>隧道工程</t>
+  </si>
+  <si>
+    <t>02903030209</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>工程机械</t>
-  </si>
-  <si>
-    <t>上游</t>
-  </si>
-  <si>
-    <t>中游</t>
-  </si>
-  <si>
-    <t>下游</t>
-  </si>
-  <si>
-    <t>原材料</t>
-  </si>
-  <si>
-    <t>零部件</t>
-  </si>
-  <si>
-    <t>生产设备</t>
-  </si>
-  <si>
-    <t>工程机械制造</t>
-  </si>
-  <si>
-    <t>配套服务</t>
-  </si>
-  <si>
-    <t>销售渠道</t>
-  </si>
-  <si>
-    <t>产品应用</t>
-  </si>
-  <si>
-    <t>工程机械配件</t>
-  </si>
-  <si>
-    <t>轴承</t>
-  </si>
-  <si>
-    <t>液压系统</t>
-  </si>
-  <si>
-    <t>土方机械</t>
-  </si>
-  <si>
-    <t>桩工机械</t>
-  </si>
-  <si>
-    <t>路面机械</t>
-  </si>
-  <si>
-    <t>混凝土机械</t>
-  </si>
-  <si>
-    <t>起重机械</t>
-  </si>
-  <si>
-    <t>工业车辆</t>
-  </si>
-  <si>
-    <t>隧道专用机械</t>
-  </si>
-  <si>
-    <t>高空作业设备</t>
-  </si>
-  <si>
-    <t>非道路货运自卸车</t>
-  </si>
-  <si>
-    <t>房屋建设工程</t>
-  </si>
-  <si>
-    <t>基础建设工程</t>
-  </si>
-  <si>
-    <t>挖掘机械</t>
-  </si>
-  <si>
-    <t>推土机械</t>
-  </si>
-  <si>
-    <t>铲土机械</t>
-  </si>
-  <si>
-    <t>运输机械</t>
-  </si>
-  <si>
-    <t>压实机械</t>
-  </si>
-  <si>
-    <t>打桩机</t>
-  </si>
-  <si>
-    <t>压装机</t>
-  </si>
-  <si>
-    <t>打桩锤</t>
-  </si>
-  <si>
-    <t>柴油锤打桩架</t>
-  </si>
-  <si>
-    <t>拨桩机</t>
-  </si>
-  <si>
-    <t>摊铺机械</t>
-  </si>
-  <si>
-    <t>筑养路机械</t>
-  </si>
-  <si>
-    <t>线路铺装机械</t>
-  </si>
-  <si>
-    <t>轻小型起重设备</t>
-  </si>
-  <si>
-    <t>桥式起重机</t>
-  </si>
-  <si>
-    <t>门式起重机(龙门起重机)</t>
-  </si>
-  <si>
-    <t>门座起重机</t>
-  </si>
-  <si>
-    <t>塔式起重机</t>
-  </si>
-  <si>
-    <t>轮式起重机</t>
-  </si>
-  <si>
-    <t>悬臂起重机</t>
-  </si>
-  <si>
-    <t>移动式吊运架</t>
-  </si>
-  <si>
-    <t>装卸桥</t>
-  </si>
-  <si>
-    <t>叉车</t>
-  </si>
-  <si>
-    <t>工业用房屋建设工程</t>
-  </si>
-  <si>
-    <t>住宅及商业房屋建设工程</t>
-  </si>
-  <si>
-    <t>公用地产房屋建设工程</t>
-  </si>
-  <si>
-    <t>水利工程</t>
-  </si>
-  <si>
-    <t>机场工程</t>
-  </si>
-  <si>
-    <t>水运工程</t>
-  </si>
-  <si>
-    <t>管道工程</t>
-  </si>
-  <si>
-    <t>海洋工程</t>
-  </si>
-  <si>
-    <t>市政工程</t>
-  </si>
-  <si>
-    <t>路桥工程</t>
-  </si>
-  <si>
-    <t>铁路工程</t>
-  </si>
-  <si>
-    <t>隧道工程</t>
-  </si>
-  <si>
-    <t>工程机械用钢</t>
-  </si>
-  <si>
-    <t>内燃机</t>
-  </si>
-  <si>
-    <t>工程机械动力电池</t>
-  </si>
-  <si>
-    <t>工程机械涂料</t>
-  </si>
-  <si>
-    <t>工程机械橡胶部件</t>
-  </si>
-  <si>
-    <t>工程机械齿轮</t>
-  </si>
-  <si>
-    <t>工程机械座椅</t>
-  </si>
-  <si>
-    <t>机床</t>
-  </si>
-  <si>
-    <t>工业机器人系统集成</t>
-  </si>
-  <si>
-    <t>自动化装备设备</t>
-  </si>
-  <si>
-    <t>机床刀具</t>
-  </si>
-  <si>
-    <t>焊接设备</t>
-  </si>
-  <si>
-    <t>锻造模具</t>
-  </si>
-  <si>
-    <t>融租服务</t>
-  </si>
-  <si>
-    <t>工程机械贸易</t>
-  </si>
-  <si>
-    <t>工程机械零售</t>
-  </si>
-  <si>
-    <t>能源采矿工程</t>
-  </si>
-  <si>
-    <t>工程车罩体</t>
-  </si>
-  <si>
-    <t>推土机机铲</t>
-  </si>
-  <si>
-    <t>挖掘机用铲</t>
-  </si>
-  <si>
-    <t>滑动轴承</t>
-  </si>
-  <si>
-    <t>关节轴承</t>
-  </si>
-  <si>
-    <t>滚动轴承</t>
-  </si>
-  <si>
-    <t>深沟球轴承</t>
-  </si>
-  <si>
-    <t>角接触球轴承</t>
-  </si>
-  <si>
-    <t>调心球轴承</t>
-  </si>
-  <si>
-    <t>推力球轴承</t>
-  </si>
-  <si>
-    <t>双向推力角接触轴承</t>
-  </si>
-  <si>
-    <t>液压泵</t>
-  </si>
-  <si>
-    <t>液压马达</t>
-  </si>
-  <si>
-    <t>液压缸</t>
-  </si>
-  <si>
-    <t>扫雪设备</t>
-  </si>
-  <si>
-    <t>混凝土泵车</t>
-  </si>
-  <si>
-    <t>混凝土搅拌站</t>
-  </si>
-  <si>
-    <t>混凝土泵</t>
-  </si>
-  <si>
-    <t>混凝土搅拌车</t>
-  </si>
-  <si>
-    <t>散装水泥车</t>
-  </si>
-  <si>
-    <t>布料杆</t>
-  </si>
-  <si>
-    <t>跨运车</t>
-  </si>
-  <si>
-    <t>手动搬运车</t>
-  </si>
-  <si>
-    <t>堆垛车</t>
-  </si>
-  <si>
-    <t>拣选车</t>
-  </si>
-  <si>
-    <t>掘进机</t>
-  </si>
-  <si>
-    <t>盾构机</t>
-  </si>
-  <si>
-    <t>交叉式高空作业平台</t>
-  </si>
-  <si>
-    <t>曲臂式高空作业平台</t>
-  </si>
-  <si>
-    <t>直臂式高空作业平台</t>
-  </si>
-  <si>
-    <t>电动轮非公路用货运自卸车</t>
-  </si>
-  <si>
-    <t>自卸车(翻斗车)</t>
-  </si>
-  <si>
     <t>履带式挖掘机</t>
   </si>
   <si>
+    <t>0290201010101</t>
+  </si>
+  <si>
     <t>轮式挖掘机</t>
   </si>
   <si>
+    <t>0290201010102</t>
+  </si>
+  <si>
     <t>挖装机</t>
   </si>
   <si>
+    <t>0290201010103</t>
+  </si>
+  <si>
     <t>连续式挖掘机</t>
   </si>
   <si>
+    <t>0290201010104</t>
+  </si>
+  <si>
     <t>特种挖掘机</t>
   </si>
   <si>
+    <t>0290201010105</t>
+  </si>
+  <si>
     <t>履带式推土机</t>
   </si>
   <si>
+    <t>0290201010201</t>
+  </si>
+  <si>
     <t>侧铲推土机</t>
   </si>
   <si>
+    <t>0290201010202</t>
+  </si>
+  <si>
     <t>铲运机</t>
   </si>
   <si>
+    <t>0290201010301</t>
+  </si>
+  <si>
     <t>机械铲</t>
   </si>
   <si>
+    <t>0290201010302</t>
+  </si>
+  <si>
     <t>平地机</t>
   </si>
   <si>
+    <t>0290201010303</t>
+  </si>
+  <si>
     <t>装载机</t>
   </si>
   <si>
+    <t>0290201010401</t>
+  </si>
+  <si>
     <t>机动压路机</t>
   </si>
   <si>
+    <t>0290201010501</t>
+  </si>
+  <si>
     <t>非机动压路机</t>
   </si>
   <si>
+    <t>0290201010502</t>
+  </si>
+  <si>
     <t>打夯机</t>
   </si>
   <si>
+    <t>0290201010503</t>
+  </si>
+  <si>
     <t>电动履带式打桩机</t>
   </si>
   <si>
+    <t>0290201020101</t>
+  </si>
+  <si>
     <t>履带式螺纹打桩机</t>
   </si>
   <si>
+    <t>0290201020102</t>
+  </si>
+  <si>
     <t>步履式打桩机</t>
   </si>
   <si>
+    <t>0290201020103</t>
+  </si>
+  <si>
     <t>地下连续墙钻机</t>
   </si>
   <si>
+    <t>0290201020104</t>
+  </si>
+  <si>
     <t>非圆形桩钻机</t>
   </si>
   <si>
+    <t>0290201020105</t>
+  </si>
+  <si>
     <t>机械式压桩机</t>
   </si>
   <si>
+    <t>0290201020201</t>
+  </si>
+  <si>
     <t>液压式压桩机</t>
   </si>
   <si>
+    <t>0290201020202</t>
+  </si>
+  <si>
     <t>柴油打桩机</t>
   </si>
   <si>
+    <t>0290201020301</t>
+  </si>
+  <si>
     <t>液压打桩机</t>
   </si>
   <si>
+    <t>0290201020302</t>
+  </si>
+  <si>
     <t>振动桩锤</t>
   </si>
   <si>
+    <t>0290201020303</t>
+  </si>
+  <si>
     <t>走管式柴油锤打桩架</t>
   </si>
   <si>
+    <t>0290201020401</t>
+  </si>
+  <si>
     <t>履带式柴油锤打桩架</t>
   </si>
   <si>
+    <t>0290201020402</t>
+  </si>
+  <si>
     <t>步履式柴油锤打桩架</t>
   </si>
   <si>
+    <t>0290201020403</t>
+  </si>
+  <si>
     <t>轨道式柴油锤打桩架</t>
   </si>
   <si>
+    <t>0290201020404</t>
+  </si>
+  <si>
     <t>轮胎式柴油锤打桩架</t>
   </si>
   <si>
+    <t>0290201020405</t>
+  </si>
+  <si>
     <t>振动沉拔桩机</t>
   </si>
   <si>
+    <t>0290201020501</t>
+  </si>
+  <si>
     <t>步履沉拔桩机</t>
   </si>
   <si>
+    <t>0290201020502</t>
+  </si>
+  <si>
     <t>沥青混凝土摊铺机</t>
   </si>
   <si>
+    <t>0290201030101</t>
+  </si>
+  <si>
     <t>混凝土摊铺整平机</t>
   </si>
   <si>
+    <t>0290201030102</t>
+  </si>
+  <si>
     <t>稳定土摊铺机</t>
   </si>
   <si>
+    <t>0290201030103</t>
+  </si>
+  <si>
     <t>散状物料撒布机</t>
   </si>
   <si>
+    <t>0290201030104</t>
+  </si>
+  <si>
     <t>多功能混凝土摊铺机</t>
   </si>
   <si>
+    <t>0290201030105</t>
+  </si>
+  <si>
     <t>沥青路面机械</t>
   </si>
   <si>
+    <t>0290201030201</t>
+  </si>
+  <si>
     <t>混凝土路面机械</t>
   </si>
   <si>
+    <t>0290201030202</t>
+  </si>
+  <si>
     <t>碎石路面施工机械</t>
   </si>
   <si>
+    <t>0290201030203</t>
+  </si>
+  <si>
     <t>管道吊管机</t>
   </si>
   <si>
+    <t>0290201030301</t>
+  </si>
+  <si>
     <t>铺设机</t>
   </si>
   <si>
+    <t>0290201030302</t>
+  </si>
+  <si>
     <t>架桥机</t>
   </si>
   <si>
+    <t>0290201030303</t>
+  </si>
+  <si>
     <t>挖沟及管道吊装联合机</t>
   </si>
   <si>
+    <t>0290201030304</t>
+  </si>
+  <si>
     <t>埋管机</t>
   </si>
   <si>
+    <t>0290201030305</t>
+  </si>
+  <si>
     <t>手动葫芦</t>
   </si>
   <si>
+    <t>0290201050101</t>
+  </si>
+  <si>
     <t>电动葫芦</t>
   </si>
   <si>
+    <t>0290201050102</t>
+  </si>
+  <si>
     <t>起重滑车</t>
   </si>
   <si>
+    <t>0290201050103</t>
+  </si>
+  <si>
     <t>汽车举升机</t>
   </si>
   <si>
+    <t>0290201050104</t>
+  </si>
+  <si>
     <t>通用桥式起重机</t>
   </si>
   <si>
+    <t>0290201050201</t>
+  </si>
+  <si>
     <t>电动葫芦梁式起重机</t>
   </si>
   <si>
+    <t>0290201050202</t>
+  </si>
+  <si>
     <t>冶金起重机</t>
   </si>
   <si>
+    <t>0290201050203</t>
+  </si>
+  <si>
     <t>专用桥式起重机</t>
   </si>
   <si>
+    <t>0290201050204</t>
+  </si>
+  <si>
     <t>通用门式起重机</t>
   </si>
   <si>
+    <t>0290201050301</t>
+  </si>
+  <si>
     <t>水电站门式起重机</t>
   </si>
   <si>
+    <t>0290201050302</t>
+  </si>
+  <si>
     <t>造船用门式起重机</t>
   </si>
   <si>
+    <t>0290201050303</t>
+  </si>
+  <si>
     <t>轮胎式集装箱门式起重机</t>
   </si>
   <si>
+    <t>0290201050304</t>
+  </si>
+  <si>
     <t>轨道式集装箱门式起重机</t>
   </si>
   <si>
+    <t>0290201050305</t>
+  </si>
+  <si>
     <t>手动门式起重机</t>
   </si>
   <si>
+    <t>0290201050306</t>
+  </si>
+  <si>
     <t>通用门座起重机</t>
   </si>
   <si>
+    <t>0290201050401</t>
+  </si>
+  <si>
     <t>带斗门座起重机</t>
   </si>
   <si>
+    <t>0290201050402</t>
+  </si>
+  <si>
     <t>集装箱门座起重机</t>
   </si>
   <si>
+    <t>0290201050403</t>
+  </si>
+  <si>
     <t>多用途门座起重机</t>
   </si>
   <si>
+    <t>0290201050404</t>
+  </si>
+  <si>
     <t>造船门座起重机</t>
   </si>
   <si>
+    <t>0290201050405</t>
+  </si>
+  <si>
     <t>建筑门座起重机</t>
   </si>
   <si>
+    <t>0290201050406</t>
+  </si>
+  <si>
     <t>轨道式塔式起重机</t>
   </si>
   <si>
+    <t>0290201050501</t>
+  </si>
+  <si>
     <t>固定塔式起重机</t>
   </si>
   <si>
+    <t>0290201050502</t>
+  </si>
+  <si>
     <t>自升式塔式起重机</t>
   </si>
   <si>
+    <t>0290201050503</t>
+  </si>
+  <si>
     <t>轮式塔式起重机</t>
   </si>
   <si>
+    <t>0290201050504</t>
+  </si>
+  <si>
     <t>履带式塔式起重机</t>
   </si>
   <si>
+    <t>0290201050505</t>
+  </si>
+  <si>
     <t>汽车起重机</t>
   </si>
   <si>
+    <t>0290201050601</t>
+  </si>
+  <si>
     <t>轮胎起重机</t>
   </si>
   <si>
+    <t>0290201050602</t>
+  </si>
+  <si>
     <t>越野轮胎起重机</t>
   </si>
   <si>
+    <t>0290201050603</t>
+  </si>
+  <si>
     <t>全地(路)面起重机</t>
   </si>
   <si>
+    <t>0290201050604</t>
+  </si>
+  <si>
     <t>履带式起重机</t>
   </si>
   <si>
+    <t>0290201050605</t>
+  </si>
+  <si>
     <t>特殊底盘起重机</t>
   </si>
   <si>
+    <t>0290201050606</t>
+  </si>
+  <si>
     <t>随车起重机</t>
   </si>
   <si>
+    <t>0290201050607</t>
+  </si>
+  <si>
     <t>桅杆起重机</t>
   </si>
   <si>
+    <t>0290201050608</t>
+  </si>
+  <si>
     <t>甲板起重机</t>
   </si>
   <si>
+    <t>0290201050609</t>
+  </si>
+  <si>
     <t>柱式臂架起重机</t>
   </si>
   <si>
+    <t>0290201050701</t>
+  </si>
+  <si>
     <t>壁上起重机</t>
   </si>
   <si>
+    <t>0290201050702</t>
+  </si>
+  <si>
     <t>平衡起重机</t>
   </si>
   <si>
+    <t>0290201050703</t>
+  </si>
+  <si>
     <t>胶轮移动式吊运架</t>
   </si>
   <si>
+    <t>0290201050801</t>
+  </si>
+  <si>
     <t>铁路起重机</t>
   </si>
   <si>
+    <t>0290201050802</t>
+  </si>
+  <si>
     <t>浮式起重机</t>
   </si>
   <si>
+    <t>0290201050803</t>
+  </si>
+  <si>
     <t>起重机专用配套件</t>
   </si>
   <si>
+    <t>0290201050804</t>
+  </si>
+  <si>
     <t>卸船起重机</t>
   </si>
   <si>
+    <t>0290201050901</t>
+  </si>
+  <si>
     <t>岸边集装箱装卸桥</t>
   </si>
   <si>
+    <t>0290201050902</t>
+  </si>
+  <si>
     <t>内燃室内叉车</t>
   </si>
   <si>
+    <t>0290201060101</t>
+  </si>
+  <si>
     <t>集装箱叉车</t>
   </si>
   <si>
+    <t>0290201060102</t>
+  </si>
+  <si>
     <t>集装箱正面吊运机</t>
   </si>
   <si>
+    <t>0290201060103</t>
+  </si>
+  <si>
     <t>电动平衡重乘驾式叉车</t>
   </si>
   <si>
+    <t>0290201060104</t>
+  </si>
+  <si>
     <t>电动乘驾式仓储叉车</t>
   </si>
   <si>
+    <t>0290201060105</t>
+  </si>
+  <si>
     <t>电动步行式仓储叉车</t>
   </si>
   <si>
+    <t>0290201060106</t>
+  </si>
+  <si>
     <t>越野叉车</t>
   </si>
   <si>
+    <t>0290201060107</t>
+  </si>
+  <si>
     <t>厂房建设工程</t>
   </si>
   <si>
+    <t>0290303010101</t>
+  </si>
+  <si>
     <t>仓库建设工程</t>
   </si>
   <si>
+    <t>0290303010102</t>
+  </si>
+  <si>
     <t>住宅房屋建设工程</t>
   </si>
   <si>
+    <t>0290303010201</t>
+  </si>
+  <si>
     <t>办公用房屋建设工程</t>
   </si>
   <si>
+    <t>0290303010202</t>
+  </si>
+  <si>
     <t>商业用房屋建设工程</t>
   </si>
   <si>
+    <t>0290303010203</t>
+  </si>
+  <si>
     <t>教育用房屋建设工程</t>
   </si>
   <si>
+    <t>0290303010301</t>
+  </si>
+  <si>
     <t>医疗用房屋建设工程</t>
   </si>
   <si>
+    <t>0290303010302</t>
+  </si>
+  <si>
     <t>水工建筑物基础处理工程</t>
   </si>
   <si>
+    <t>0290303020101</t>
+  </si>
+  <si>
     <t>水工大坝工程</t>
   </si>
   <si>
+    <t>0290303020102</t>
+  </si>
+  <si>
     <t>河湖整治工程</t>
   </si>
   <si>
+    <t>0290303020103</t>
+  </si>
+  <si>
     <t>堤防工程</t>
   </si>
   <si>
+    <t>0290303020104</t>
+  </si>
+  <si>
     <t>水库工程</t>
   </si>
   <si>
+    <t>0290303020105</t>
+  </si>
+  <si>
     <t>水力发电建设工程</t>
   </si>
   <si>
+    <t>0290303020106</t>
+  </si>
+  <si>
     <t>节水工程</t>
   </si>
   <si>
+    <t>0290303020107</t>
+  </si>
+  <si>
     <t>灌溉工程</t>
   </si>
   <si>
+    <t>0290303020108</t>
+  </si>
+  <si>
     <t>飞机跑道工程</t>
   </si>
   <si>
+    <t>0290303020201</t>
+  </si>
+  <si>
     <t>停机坪工程</t>
   </si>
   <si>
+    <t>0290303020202</t>
+  </si>
+  <si>
     <t>港口海岸工程</t>
   </si>
   <si>
+    <t>0290303020301</t>
+  </si>
+  <si>
     <t>航道工程</t>
   </si>
   <si>
+    <t>0290303020302</t>
+  </si>
+  <si>
     <t>通航建筑工程</t>
   </si>
   <si>
+    <t>0290303020303</t>
+  </si>
+  <si>
     <t>输油管道工程</t>
   </si>
   <si>
+    <t>0290303020401</t>
+  </si>
+  <si>
     <t>输气管道工程</t>
   </si>
   <si>
+    <t>0290303020402</t>
+  </si>
+  <si>
     <t>输水管道工程</t>
   </si>
   <si>
+    <t>0290303020403</t>
+  </si>
+  <si>
     <t>围海造地工程</t>
   </si>
   <si>
+    <t>0290303020501</t>
+  </si>
+  <si>
     <t>防侵蚀工程</t>
   </si>
   <si>
+    <t>0290303020502</t>
+  </si>
+  <si>
     <t>护岸护滩工程</t>
   </si>
   <si>
+    <t>0290303020503</t>
+  </si>
+  <si>
     <t>海洋观景设施工程</t>
   </si>
   <si>
+    <t>0290303020504</t>
+  </si>
+  <si>
     <t>滨海污水海洋处置工程</t>
   </si>
   <si>
+    <t>0290303020505</t>
+  </si>
+  <si>
     <t>人工岛屿工程</t>
   </si>
   <si>
+    <t>0290303020506</t>
+  </si>
+  <si>
     <t>人工渔礁工程</t>
   </si>
   <si>
+    <t>0290303020507</t>
+  </si>
+  <si>
     <t>海底场馆工程</t>
   </si>
   <si>
+    <t>0290303020508</t>
+  </si>
+  <si>
     <t>海底电缆工程</t>
   </si>
   <si>
+    <t>0290303020509</t>
+  </si>
+  <si>
     <t>海底管道工程</t>
   </si>
   <si>
+    <t>0290303020510</t>
+  </si>
+  <si>
     <t>海底隧道工程</t>
   </si>
   <si>
+    <t>0290303020511</t>
+  </si>
+  <si>
     <t>城轨建设工程</t>
   </si>
   <si>
+    <t>0290303020601</t>
+  </si>
+  <si>
     <t>电力工程</t>
   </si>
   <si>
+    <t>0290303020602</t>
+  </si>
+  <si>
     <t>水供应建设工程</t>
   </si>
   <si>
+    <t>0290303020603</t>
+  </si>
+  <si>
     <t>燃气供应建设工程</t>
   </si>
   <si>
+    <t>0290303020604</t>
+  </si>
+  <si>
     <t>热力生产建设工程</t>
   </si>
   <si>
+    <t>0290303020605</t>
+  </si>
+  <si>
     <t>环保工程</t>
   </si>
   <si>
+    <t>0290303020606</t>
+  </si>
+  <si>
     <t>城市及道路照明工程</t>
   </si>
   <si>
+    <t>0290303020607</t>
+  </si>
+  <si>
     <t>城市管道工程</t>
   </si>
   <si>
+    <t>0290303020608</t>
+  </si>
+  <si>
     <t>城市道路工程</t>
   </si>
   <si>
+    <t>0290303020701</t>
+  </si>
+  <si>
     <t>高速公路建设工程</t>
   </si>
   <si>
+    <t>0290303020702</t>
+  </si>
+  <si>
     <t>桥梁工程</t>
   </si>
   <si>
+    <t>0290303020703</t>
+  </si>
+  <si>
     <t>铁路路基工程</t>
   </si>
   <si>
+    <t>0290303020801</t>
+  </si>
+  <si>
     <t>铁路电气化工程</t>
   </si>
   <si>
+    <t>0290303020802</t>
+  </si>
+  <si>
     <t>铁路通信信号工程</t>
   </si>
   <si>
+    <t>0290303020803</t>
+  </si>
+  <si>
     <t>铁路隧道工程</t>
   </si>
   <si>
+    <t>0290303020901</t>
+  </si>
+  <si>
     <t>城市地铁隧道工程</t>
   </si>
   <si>
+    <t>0290303020902</t>
+  </si>
+  <si>
     <t>公路隧道工程</t>
   </si>
   <si>
-    <t>02901</t>
-  </si>
-  <si>
-    <t>02902</t>
-  </si>
-  <si>
-    <t>02903</t>
-  </si>
-  <si>
-    <t>0290101</t>
-  </si>
-  <si>
-    <t>0290201</t>
-  </si>
-  <si>
-    <t>0290301</t>
-  </si>
-  <si>
-    <t>029010101</t>
-  </si>
-  <si>
-    <t>029020101</t>
-  </si>
-  <si>
-    <t>029030101</t>
-  </si>
-  <si>
-    <t>02901010101</t>
-  </si>
-  <si>
-    <t>02902010101</t>
-  </si>
-  <si>
-    <t>029030101010102</t>
-  </si>
-  <si>
-    <t>0290301010102</t>
-  </si>
-  <si>
-    <t>02903010101</t>
-  </si>
-  <si>
-    <t>0290201010101</t>
-  </si>
-  <si>
-    <t>02903010101010201</t>
-  </si>
-  <si>
-    <t>0290301010101</t>
+    <t>0290303020903</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -908,9 +1959,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -918,11 +2211,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1205,19 +2550,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.81818181818182" customWidth="1"/>
+    <col min="2" max="2" width="16.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="25.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="27.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="15.1818181818182" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,13 +2593,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +2610,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1273,13 +2627,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1287,16 +2641,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1304,16 +2658,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1321,16 +2675,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1338,16 +2692,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1355,16 +2709,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1372,16 +2726,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1389,16 +2743,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1406,16 +2760,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1423,16 +2777,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1440,16 +2794,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1457,16 +2811,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1474,16 +2828,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1491,16 +2845,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1508,16 +2862,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1525,16 +2879,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1542,16 +2896,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1559,16 +2913,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1576,16 +2930,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>269</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1593,16 +2947,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1610,16 +2964,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1627,16 +2981,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1644,16 +2998,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1661,16 +3015,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1678,16 +3032,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1695,16 +3049,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>270</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1712,16 +3066,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1729,16 +3083,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1746,16 +3100,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1763,16 +3117,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1780,16 +3134,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1797,16 +3151,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>270</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1814,16 +3168,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1831,16 +3185,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1848,16 +3202,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1865,16 +3219,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1882,16 +3236,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1899,16 +3253,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1916,16 +3270,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1933,16 +3287,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>272</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1950,16 +3304,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1967,16 +3321,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1984,16 +3338,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>272</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2001,16 +3355,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2018,16 +3372,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>272</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2035,16 +3389,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>272</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2052,16 +3406,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>272</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2069,16 +3423,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2086,16 +3440,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2103,16 +3457,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2120,16 +3474,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2137,16 +3491,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2154,16 +3508,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>272</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2171,16 +3525,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>273</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2188,16 +3542,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2205,16 +3559,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>273</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2222,16 +3576,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>273</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2239,16 +3593,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2256,16 +3610,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
-        <v>273</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2273,16 +3627,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>273</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2290,16 +3644,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>273</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2307,16 +3661,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2324,16 +3678,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="E66" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2341,16 +3695,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2358,16 +3712,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="E68" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2375,16 +3729,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2392,16 +3746,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2409,16 +3763,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>273</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2426,16 +3780,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2443,16 +3797,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>273</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2460,16 +3814,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>273</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2477,16 +3831,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2494,16 +3848,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2511,16 +3865,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2528,16 +3882,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2545,16 +3899,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2562,16 +3916,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2579,16 +3933,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="E81" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2596,16 +3950,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="E82" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2613,16 +3967,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="E83" t="s">
-        <v>273</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2630,16 +3984,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="E84" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2647,16 +4001,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="E85" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2664,16 +4018,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="E86" t="s">
-        <v>273</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2681,16 +4035,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="E87" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2698,16 +4052,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2715,16 +4069,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>273</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2732,16 +4086,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="E90" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2749,16 +4103,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D91" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="E91" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2766,16 +4120,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="E92" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2783,16 +4137,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2800,16 +4154,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2817,16 +4171,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="E95" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2834,16 +4188,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="E96" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2851,16 +4205,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2868,16 +4222,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2885,16 +4239,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D99" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="E99" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2902,16 +4256,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D100" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="E100" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2919,16 +4273,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D101" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2936,16 +4290,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="E102" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2953,16 +4307,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="E103" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2970,16 +4324,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="E104" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2987,16 +4341,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D105" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="E105" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3004,16 +4358,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D106" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="E106" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3021,16 +4375,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="E107" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3038,16 +4392,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="E108" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3055,16 +4409,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="E109" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3072,16 +4426,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="E110" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3089,16 +4443,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D111" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="E111" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3106,16 +4460,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3123,16 +4477,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3140,16 +4494,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3157,16 +4511,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3174,16 +4528,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3191,16 +4545,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3208,16 +4562,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="E118" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3225,16 +4579,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="E119" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3242,16 +4596,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3259,16 +4613,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="D121" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="E121" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3276,16 +4630,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C122" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="D122" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="E122" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3293,16 +4647,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="D123" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="E123" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3310,16 +4664,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D124" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3327,16 +4681,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C125" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="E125" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3344,16 +4698,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="E126" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3361,16 +4715,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C127" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="E127" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3378,16 +4732,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="E128" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3395,16 +4749,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C129" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="E129" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3412,16 +4766,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D130" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="E130" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3429,16 +4783,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C131" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="E131" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3446,16 +4800,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="E132" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3463,16 +4817,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C133" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="E133" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3480,16 +4834,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C134" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="E134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3497,13 +4851,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C135" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D135" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="E135" t="s">
         <v>277</v>
@@ -3514,16 +4868,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C136" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="E136" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3531,16 +4885,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C137" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D137" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="E137" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3548,16 +4902,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="E138" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3565,16 +4919,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3582,16 +4936,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="D140" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3599,16 +4953,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3616,16 +4970,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C142" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D142" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3633,16 +4987,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C143" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D143" t="s">
-        <v>150</v>
+        <v>292</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3650,16 +5004,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C144" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D144" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3667,16 +5021,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C145" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D145" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3684,16 +5038,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3701,16 +5055,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D147" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3718,16 +5072,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C148" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3735,16 +5089,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C149" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3752,16 +5106,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C150" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D150" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3769,16 +5123,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C151" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D151" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="E151" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3786,16 +5140,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C152" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D152" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3803,16 +5157,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C153" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3820,16 +5174,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3837,16 +5191,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C155" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D155" t="s">
-        <v>162</v>
+        <v>316</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3854,16 +5208,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C156" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3871,16 +5225,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C157" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="E157" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3888,16 +5242,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="E158" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3905,16 +5259,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C159" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="E159" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3922,16 +5276,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="D160" t="s">
-        <v>167</v>
+        <v>326</v>
       </c>
       <c r="E160" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3939,16 +5293,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="D161" t="s">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="E161" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3956,16 +5310,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D162" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="E162" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3973,16 +5327,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D163" t="s">
-        <v>170</v>
+        <v>332</v>
       </c>
       <c r="E163" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3990,16 +5344,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C164" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D164" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="E164" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4007,16 +5361,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C165" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D165" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="E165" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4024,16 +5378,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C166" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D166" t="s">
-        <v>173</v>
+        <v>338</v>
       </c>
       <c r="E166" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4041,16 +5395,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C167" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D167" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="E167" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4058,16 +5412,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C168" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="D168" t="s">
-        <v>175</v>
+        <v>342</v>
       </c>
       <c r="E168" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4075,16 +5429,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C169" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D169" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="E169" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4092,16 +5446,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C170" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D170" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="E170" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4109,16 +5463,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C171" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D171" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="E171" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4126,16 +5480,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C172" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D172" t="s">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="E172" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4143,16 +5497,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C173" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D173" t="s">
-        <v>180</v>
+        <v>352</v>
       </c>
       <c r="E173" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4160,16 +5514,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C174" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="D174" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="E174" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4177,16 +5531,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C175" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="D175" t="s">
-        <v>182</v>
+        <v>356</v>
       </c>
       <c r="E175" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4194,16 +5548,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C176" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="D176" t="s">
-        <v>183</v>
+        <v>358</v>
       </c>
       <c r="E176" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4211,16 +5565,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C177" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="D177" t="s">
-        <v>184</v>
+        <v>360</v>
       </c>
       <c r="E177" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4228,16 +5582,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C178" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="D178" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
       <c r="E178" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4245,16 +5599,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C179" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="D179" t="s">
-        <v>186</v>
+        <v>364</v>
       </c>
       <c r="E179" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4262,16 +5616,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C180" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D180" t="s">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="E180" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4279,16 +5633,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C181" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D181" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="E181" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4296,16 +5650,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C182" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D182" t="s">
-        <v>189</v>
+        <v>370</v>
       </c>
       <c r="E182" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4313,16 +5667,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C183" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D183" t="s">
-        <v>190</v>
+        <v>372</v>
       </c>
       <c r="E183" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4330,16 +5684,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C184" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D184" t="s">
-        <v>191</v>
+        <v>374</v>
       </c>
       <c r="E184" t="s">
-        <v>277</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4347,16 +5701,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C185" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D185" t="s">
-        <v>192</v>
+        <v>376</v>
       </c>
       <c r="E185" t="s">
-        <v>277</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4364,16 +5718,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C186" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D186" t="s">
-        <v>193</v>
+        <v>378</v>
       </c>
       <c r="E186" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4381,16 +5735,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C187" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D187" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="E187" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4398,16 +5752,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C188" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="D188" t="s">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="E188" t="s">
-        <v>277</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4415,16 +5769,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C189" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D189" t="s">
-        <v>196</v>
+        <v>384</v>
       </c>
       <c r="E189" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4432,16 +5786,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C190" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D190" t="s">
-        <v>197</v>
+        <v>386</v>
       </c>
       <c r="E190" t="s">
-        <v>277</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4449,16 +5803,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C191" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="D191" t="s">
-        <v>198</v>
+        <v>388</v>
       </c>
       <c r="E191" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4466,16 +5820,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C192" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="D192" t="s">
-        <v>199</v>
+        <v>390</v>
       </c>
       <c r="E192" t="s">
-        <v>277</v>
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4483,16 +5837,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C193" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="D193" t="s">
-        <v>200</v>
+        <v>392</v>
       </c>
       <c r="E193" t="s">
-        <v>277</v>
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4500,16 +5854,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="D194" t="s">
-        <v>201</v>
+        <v>394</v>
       </c>
       <c r="E194" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4517,16 +5871,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="D195" t="s">
-        <v>202</v>
+        <v>396</v>
       </c>
       <c r="E195" t="s">
-        <v>277</v>
+        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4534,16 +5888,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C196" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="D196" t="s">
-        <v>203</v>
+        <v>398</v>
       </c>
       <c r="E196" t="s">
-        <v>277</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4551,16 +5905,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="D197" t="s">
-        <v>204</v>
+        <v>400</v>
       </c>
       <c r="E197" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4568,16 +5922,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C198" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D198" t="s">
-        <v>205</v>
+        <v>402</v>
       </c>
       <c r="E198" t="s">
-        <v>277</v>
+        <v>403</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4585,16 +5939,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D199" t="s">
-        <v>206</v>
+        <v>404</v>
       </c>
       <c r="E199" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4602,16 +5956,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C200" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D200" t="s">
-        <v>207</v>
+        <v>406</v>
       </c>
       <c r="E200" t="s">
-        <v>277</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4619,16 +5973,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D201" t="s">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="E201" t="s">
-        <v>277</v>
+        <v>409</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4636,16 +5990,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C202" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D202" t="s">
-        <v>209</v>
+        <v>410</v>
       </c>
       <c r="E202" t="s">
-        <v>277</v>
+        <v>411</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4653,16 +6007,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C203" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D203" t="s">
-        <v>210</v>
+        <v>412</v>
       </c>
       <c r="E203" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4670,16 +6024,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C204" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="D204" t="s">
-        <v>211</v>
+        <v>414</v>
       </c>
       <c r="E204" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4687,16 +6041,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C205" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="D205" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="E205" t="s">
-        <v>278</v>
+        <v>417</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4704,16 +6058,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C206" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="D206" t="s">
-        <v>213</v>
+        <v>418</v>
       </c>
       <c r="E206" t="s">
-        <v>278</v>
+        <v>419</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4721,16 +6075,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C207" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="D207" t="s">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="E207" t="s">
-        <v>278</v>
+        <v>421</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4738,16 +6092,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C208" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="D208" t="s">
-        <v>215</v>
+        <v>422</v>
       </c>
       <c r="E208" t="s">
-        <v>278</v>
+        <v>423</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4755,16 +6109,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C209" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="D209" t="s">
-        <v>216</v>
+        <v>424</v>
       </c>
       <c r="E209" t="s">
-        <v>278</v>
+        <v>425</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4772,16 +6126,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C210" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="D210" t="s">
-        <v>217</v>
+        <v>426</v>
       </c>
       <c r="E210" t="s">
-        <v>278</v>
+        <v>427</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4789,16 +6143,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C211" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="D211" t="s">
-        <v>218</v>
+        <v>428</v>
       </c>
       <c r="E211" t="s">
-        <v>278</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4806,16 +6160,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C212" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D212" t="s">
-        <v>219</v>
+        <v>430</v>
       </c>
       <c r="E212" t="s">
-        <v>279</v>
+        <v>431</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4823,16 +6177,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C213" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D213" t="s">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="E213" t="s">
-        <v>279</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4840,16 +6194,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C214" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D214" t="s">
-        <v>221</v>
+        <v>434</v>
       </c>
       <c r="E214" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4857,16 +6211,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C215" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D215" t="s">
-        <v>222</v>
+        <v>436</v>
       </c>
       <c r="E215" t="s">
-        <v>279</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4874,16 +6228,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C216" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D216" t="s">
-        <v>223</v>
+        <v>438</v>
       </c>
       <c r="E216" t="s">
-        <v>279</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4891,16 +6245,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C217" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D217" t="s">
-        <v>224</v>
+        <v>440</v>
       </c>
       <c r="E217" t="s">
-        <v>279</v>
+        <v>441</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4908,16 +6262,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C218" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="D218" t="s">
-        <v>225</v>
+        <v>442</v>
       </c>
       <c r="E218" t="s">
-        <v>279</v>
+        <v>443</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4925,16 +6279,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C219" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="D219" t="s">
-        <v>226</v>
+        <v>444</v>
       </c>
       <c r="E219" t="s">
-        <v>279</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4942,16 +6296,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C220" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="D220" t="s">
-        <v>227</v>
+        <v>446</v>
       </c>
       <c r="E220" t="s">
-        <v>279</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4959,16 +6313,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="D221" t="s">
-        <v>228</v>
+        <v>448</v>
       </c>
       <c r="E221" t="s">
-        <v>279</v>
+        <v>449</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4976,16 +6330,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="D222" t="s">
-        <v>229</v>
+        <v>450</v>
       </c>
       <c r="E222" t="s">
-        <v>279</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4993,16 +6347,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="D223" t="s">
-        <v>230</v>
+        <v>452</v>
       </c>
       <c r="E223" t="s">
-        <v>279</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5010,16 +6364,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="D224" t="s">
-        <v>231</v>
+        <v>454</v>
       </c>
       <c r="E224" t="s">
-        <v>279</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5027,16 +6381,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C225" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="D225" t="s">
-        <v>232</v>
+        <v>456</v>
       </c>
       <c r="E225" t="s">
-        <v>279</v>
+        <v>457</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5044,16 +6398,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="D226" t="s">
-        <v>233</v>
+        <v>458</v>
       </c>
       <c r="E226" t="s">
-        <v>279</v>
+        <v>459</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5061,16 +6415,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="D227" t="s">
-        <v>234</v>
+        <v>460</v>
       </c>
       <c r="E227" t="s">
-        <v>279</v>
+        <v>461</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5078,16 +6432,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C228" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D228" t="s">
-        <v>235</v>
+        <v>462</v>
       </c>
       <c r="E228" t="s">
-        <v>279</v>
+        <v>463</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5095,16 +6449,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D229" t="s">
-        <v>236</v>
+        <v>464</v>
       </c>
       <c r="E229" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5112,16 +6466,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C230" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D230" t="s">
-        <v>237</v>
+        <v>466</v>
       </c>
       <c r="E230" t="s">
-        <v>279</v>
+        <v>467</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5129,16 +6483,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C231" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D231" t="s">
-        <v>238</v>
+        <v>468</v>
       </c>
       <c r="E231" t="s">
-        <v>279</v>
+        <v>469</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5146,16 +6500,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C232" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D232" t="s">
-        <v>239</v>
+        <v>470</v>
       </c>
       <c r="E232" t="s">
-        <v>279</v>
+        <v>471</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5163,16 +6517,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C233" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D233" t="s">
-        <v>240</v>
+        <v>472</v>
       </c>
       <c r="E233" t="s">
-        <v>279</v>
+        <v>473</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5180,16 +6534,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C234" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D234" t="s">
-        <v>241</v>
+        <v>474</v>
       </c>
       <c r="E234" t="s">
-        <v>279</v>
+        <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5197,16 +6551,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C235" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D235" t="s">
-        <v>242</v>
+        <v>476</v>
       </c>
       <c r="E235" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5214,16 +6568,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C236" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D236" t="s">
-        <v>243</v>
+        <v>478</v>
       </c>
       <c r="E236" t="s">
-        <v>279</v>
+        <v>479</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5231,16 +6585,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C237" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D237" t="s">
-        <v>244</v>
+        <v>480</v>
       </c>
       <c r="E237" t="s">
-        <v>279</v>
+        <v>481</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5248,16 +6602,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C238" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="D238" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="E238" t="s">
-        <v>279</v>
+        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5265,16 +6619,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C239" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D239" t="s">
-        <v>246</v>
+        <v>484</v>
       </c>
       <c r="E239" t="s">
-        <v>279</v>
+        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5282,16 +6636,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C240" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D240" t="s">
-        <v>247</v>
+        <v>486</v>
       </c>
       <c r="E240" t="s">
-        <v>279</v>
+        <v>487</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5299,16 +6653,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C241" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>488</v>
       </c>
       <c r="E241" t="s">
-        <v>279</v>
+        <v>489</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5316,16 +6670,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C242" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D242" t="s">
-        <v>249</v>
+        <v>490</v>
       </c>
       <c r="E242" t="s">
-        <v>279</v>
+        <v>491</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5333,16 +6687,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C243" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D243" t="s">
-        <v>250</v>
+        <v>492</v>
       </c>
       <c r="E243" t="s">
-        <v>279</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5350,16 +6704,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C244" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D244" t="s">
-        <v>251</v>
+        <v>494</v>
       </c>
       <c r="E244" t="s">
-        <v>279</v>
+        <v>495</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5367,16 +6721,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C245" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D245" t="s">
-        <v>252</v>
+        <v>496</v>
       </c>
       <c r="E245" t="s">
-        <v>279</v>
+        <v>497</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5384,16 +6738,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C246" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="D246" t="s">
-        <v>253</v>
+        <v>498</v>
       </c>
       <c r="E246" t="s">
-        <v>279</v>
+        <v>499</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5401,16 +6755,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C247" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="D247" t="s">
-        <v>254</v>
+        <v>500</v>
       </c>
       <c r="E247" t="s">
-        <v>279</v>
+        <v>501</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5418,16 +6772,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C248" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="D248" t="s">
-        <v>255</v>
+        <v>502</v>
       </c>
       <c r="E248" t="s">
-        <v>279</v>
+        <v>503</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5435,16 +6789,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C249" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="D249" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="E249" t="s">
-        <v>279</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5452,16 +6806,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C250" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="D250" t="s">
-        <v>257</v>
+        <v>506</v>
       </c>
       <c r="E250" t="s">
-        <v>279</v>
+        <v>507</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5469,16 +6823,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C251" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="D251" t="s">
-        <v>258</v>
+        <v>508</v>
       </c>
       <c r="E251" t="s">
-        <v>279</v>
+        <v>509</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5486,16 +6840,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C252" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>510</v>
       </c>
       <c r="E252" t="s">
-        <v>279</v>
+        <v>511</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5503,16 +6857,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C253" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="D253" t="s">
-        <v>260</v>
+        <v>512</v>
       </c>
       <c r="E253" t="s">
-        <v>279</v>
+        <v>513</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5520,36 +6874,20 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="C254" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="D254" t="s">
-        <v>261</v>
+        <v>514</v>
       </c>
       <c r="E254" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" t="s">
-        <v>68</v>
-      </c>
-      <c r="D255" t="s">
-        <v>262</v>
-      </c>
-      <c r="E255" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>